--- a/RPGs/Eclipse Phase/Tartarus/Samuel Williams.xlsx
+++ b/RPGs/Eclipse Phase/Tartarus/Samuel Williams.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gstroe\Documents\School\RPGs\Eclipse Phase\Tartarus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
@@ -15,7 +20,7 @@
     <definedName name="boby">Sheet2!$A$2:$A$4</definedName>
     <definedName name="skills">Sheet2!$C$2:$C$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -286,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,6 +617,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,55 +659,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,6 +684,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -727,7 +735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,7 +770,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -990,50 +998,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1159,438 +1167,508 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="15" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="27">
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="21">
         <v>4</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="21">
         <v>20</v>
       </c>
-      <c r="N9" s="28"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="23" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="M10" s="25" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="M10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="1">
         <v>50</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="M11" s="20" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="1">
         <v>15</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="1">
         <v>50</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="M13" s="20" t="s">
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="22"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="1">
         <v>50</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-      <c r="M14" s="20" t="s">
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="22"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="1">
         <v>30</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="M15" s="20" t="s">
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="M15" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1">
         <v>30</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="M16" s="20" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="M16" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="1">
         <v>40</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="1"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="1"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="1"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="1"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="22"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="1"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="1"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="1"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="1"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="1"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="25"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="1"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="25"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="1"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="1"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="22"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="M30:O30"/>
@@ -1607,83 +1685,13 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
@@ -1694,7 +1702,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
